--- a/info-plotting/gyro-activities.xlsx
+++ b/info-plotting/gyro-activities.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>kg⋅m²/s</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Precession#:~:text=than%20this%2C%20however.-,Relativistic%20(Einsteinian),near%20a%20large%20rotating%20mass.</t>
+  </si>
+  <si>
+    <t>https://pressbooks.online.ucf.edu/osuniversityphysics/chapter/11-3-precession-of-a-gyroscope/#:~:text=The%20precessional%20angular%20velocity%20is%20given%20by%20%CF%89P%3Dr,frequency%20of%20the%20gyroscope%20disk.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ty9QSiVC2g0</t>
   </si>
 </sst>
 </file>
@@ -394,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,54 +432,64 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal."/>
+    <hyperlink ref="A7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info-plotting/gyro-activities.xlsx
+++ b/info-plotting/gyro-activities.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC857B4-F2CE-4E66-B56B-B98E40DDB0C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -75,12 +76,51 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ty9QSiVC2g0</t>
+  </si>
+  <si>
+    <t>https://www.comsol.com/model/modeling-gyroscopic-effect-15007</t>
+  </si>
+  <si>
+    <t>The context of gyroscope considerations applies when a rigid body has a rotating motion.</t>
+  </si>
+  <si>
+    <t>Various situations might happen, including the special case of a rotating wheel or rotating body, under the application of external forces and torques.</t>
+  </si>
+  <si>
+    <t>1. Basic rotation</t>
+  </si>
+  <si>
+    <t>Basic modeling</t>
+  </si>
+  <si>
+    <t>Passing on justifications and explanations, the sources above admit the involvment of a quantity called moment of Inertia (A specific calculation that measures how difficult it is to rotate an object around a given axis, depending on the mass distribution and distance from the axis), Inertia (A general property of all matter describing its resistance to changes in motion), that depend on mass and geometry.</t>
+  </si>
+  <si>
+    <t>rev/min</t>
+  </si>
+  <si>
+    <t>rev/sec</t>
+  </si>
+  <si>
+    <t>rad/sec</t>
+  </si>
+  <si>
+    <t>(I) kg⋅m²</t>
+  </si>
+  <si>
+    <t>I = 0.5 x M x R^2</t>
+  </si>
+  <si>
+    <t>Hoop (M=1kg, R=1m) about symmetry axis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(L = Iω) kg⋅m²/s </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,9 +159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -138,6 +182,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>236934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="What is Moment of Inertia? (with Practice Problems)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7962DA08-721F-4AC9-8187-A3650DED30D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12172950" y="4046934"/>
+          <a:ext cx="4438649" cy="2496740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,14 +512,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -446,51 +559,214 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <f>H26*2*PI()</f>
+        <v>0.10471975511965977</v>
+      </c>
+      <c r="L26">
+        <f>0.5*1*1*1</f>
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <f>K26*L26</f>
+        <v>5.2359877559829883E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K29" si="0">H27*2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27:L29" si="1">0.5*1*1*1</f>
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M29" si="2">K27*L27</f>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>62.831853071795862</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>31.415926535897931</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:E21"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal."/>
-    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/info-plotting/gyro-activities.xlsx
+++ b/info-plotting/gyro-activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC857B4-F2CE-4E66-B56B-B98E40DDB0C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E356EB6-C5F3-4363-B98C-A9AFB4A930B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,13 +108,13 @@
     <t>(I) kg⋅m²</t>
   </si>
   <si>
-    <t>I = 0.5 x M x R^2</t>
-  </si>
-  <si>
     <t>Hoop (M=1kg, R=1m) about symmetry axis</t>
   </si>
   <si>
     <t xml:space="preserve">(L = Iω) kg⋅m²/s </t>
+  </si>
+  <si>
+    <t>I = M x R^2</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
         <v>26</v>
       </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -676,12 +676,12 @@
         <v>0.10471975511965977</v>
       </c>
       <c r="L26">
-        <f>0.5*1*1*1</f>
-        <v>0.5</v>
+        <f>1*1*1</f>
+        <v>1</v>
       </c>
       <c r="M26">
         <f>K26*L26</f>
-        <v>5.2359877559829883E-2</v>
+        <v>0.10471975511965977</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -702,12 +702,12 @@
         <v>6.2831853071795862</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27:L29" si="1">0.5*1*1*1</f>
-        <v>0.5</v>
+        <f t="shared" ref="L27:L29" si="1">1*1*1</f>
+        <v>1</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27:M29" si="2">K27*L27</f>
-        <v>3.1415926535897931</v>
+        <v>6.2831853071795862</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -723,16 +723,16 @@
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
-        <v>31.415926535897931</v>
+        <v>62.831853071795862</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -746,16 +746,16 @@
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>314.15926535897933</v>
+        <v>628.31853071795865</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/info-plotting/gyro-activities.xlsx
+++ b/info-plotting/gyro-activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E356EB6-C5F3-4363-B98C-A9AFB4A930B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BEDCBF-F91F-43F7-AFE8-86AD769C7AFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -115,6 +115,38 @@
   </si>
   <si>
     <t>I = M x R^2</t>
+  </si>
+  <si>
+    <t>Representation</t>
+  </si>
+  <si>
+    <t>A circle is usually relevant to illustrate the concept of rotation. That makes think to a wheel (that usually rotates). One can imagine that the circle rotates, though.
+An additional information is very often the center of rotation (in fact, the center of the circle if it represents a simplified rotating wheel).</t>
+  </si>
+  <si>
+    <t>A first sketch shows a top view of a rotating circle (wheel), a blue cross highlights the center of the circle.</t>
+  </si>
+  <si>
+    <t>The pro of this representation is its simplicity, but lacks some information about its motion.</t>
+  </si>
+  <si>
+    <t>The sources above explain how to illustrate a rotating body, mainly the use of the right hand rule gives some direction how to represent the rotating body. This implies the use of arrows, called vectors, that allow to represent a set of informations:
+1. a point of application, where the arrows starts,
+2. a direction
+3. a sense (a direction of direction)
+The arrows are very useful to figure characteristics of rotation motions. So, on the sketch above, let's switch the blue cross to an arrow to 1. highlight the center of rotation (where the arrows starts), 2. the position of the axis (here, perpendicular to the page), 3. the sense of rotation (say, if the arrow points toward the reader of this spreadsheet, the circle rotates counter-clockwise).</t>
+  </si>
+  <si>
+    <t>Because the concept of rotation uses the idea of rotation axis, representing a rotating body is more meaningful with a perspective effect (3D). This highlights a plane of rotation and the axis perpendicular to the plane</t>
+  </si>
+  <si>
+    <t>a 2D sketch representing a rotating wheel</t>
+  </si>
+  <si>
+    <t>a 2D sketch representing a rotating wheel (an arrow pointing the user gives information about the motion)</t>
+  </si>
+  <si>
+    <t>a 3D sketch representing a rotating wheel (an arrow gives information about the motion -right hand rule-)</t>
   </si>
 </sst>
 </file>
@@ -159,13 +191,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -243,6 +278,155 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>638175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6411A8-2B05-434D-90C2-C0DA961F91BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="6867525"/>
+          <a:ext cx="1828800" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1847850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72112DE3-E815-4B7D-8705-E5220CD208B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="8077200"/>
+          <a:ext cx="1828800" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86509F3F-7B87-40E7-9591-1937720D5835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="31249" t="32692" r="33334" b="26352"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="10001250"/>
+          <a:ext cx="3562350" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -513,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,23 +802,23 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -754,13 +938,89 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="J34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="N37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="M43:O46"/>
+    <mergeCell ref="N37:O37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal." xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/info-plotting/gyro-activities.xlsx
+++ b/info-plotting/gyro-activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BEDCBF-F91F-43F7-AFE8-86AD769C7AFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB7584A-13AA-46B7-A9C3-8C6306B3EEF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -143,17 +143,70 @@
     <t>a 2D sketch representing a rotating wheel</t>
   </si>
   <si>
-    <t>a 2D sketch representing a rotating wheel (an arrow pointing the user gives information about the motion)</t>
-  </si>
-  <si>
     <t>a 3D sketch representing a rotating wheel (an arrow gives information about the motion -right hand rule-)</t>
+  </si>
+  <si>
+    <t>The file "rotating circle.glb" (same directory in the repository) handles the figure in 3D.</t>
+  </si>
+  <si>
+    <t>How to represent the angular momentum?</t>
+  </si>
+  <si>
+    <t>a 2D sketch representing a rotating wheel (an arrow pointing the user gives information about the counter-clockwise rotation)</t>
+  </si>
+  <si>
+    <r>
+      <t>Since, the angular momentum is proportional to the angular velocity, it is represented by an arrow having the same properties, but, a different norm (length) (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +218,23 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -201,6 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -392,8 +463,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +1049,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="N37" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O37" s="4"/>
     </row>
@@ -991,9 +1062,28 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -1014,19 +1104,21 @@
       <c r="O46" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="M43:O46"/>
     <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/info-plotting/gyro-activities.xlsx
+++ b/info-plotting/gyro-activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB7584A-13AA-46B7-A9C3-8C6306B3EEF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFCB6E9-AB0A-410C-85A3-55635F47D922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -200,6 +200,9 @@
       </rPr>
       <t>).</t>
     </r>
+  </si>
+  <si>
+    <t>a 3D sketch representing a rotating doughnut (an blue arrow gives information about the motion -right hand rule-, axis of rotation and direction)</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -272,6 +275,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,6 +500,55 @@
         <a:xfrm>
           <a:off x="6743700" y="10001250"/>
           <a:ext cx="3562350" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151DA2F8-E8A2-4125-BCF3-148F5F0CE057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="33523" t="12754" r="25094" b="9106"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19049" y="11715749"/>
+          <a:ext cx="4162425" cy="4143375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -768,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,23 +1143,64 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A37:E37"/>
@@ -1112,6 +1208,7 @@
     <mergeCell ref="M43:O46"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="A42:E42"/>
+    <mergeCell ref="C44:E48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal." xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/info-plotting/gyro-activities.xlsx
+++ b/info-plotting/gyro-activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFCB6E9-AB0A-410C-85A3-55635F47D922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA685C-76C4-4592-B981-B7FBBE34B9BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -202,7 +202,49 @@
     </r>
   </si>
   <si>
-    <t>a 3D sketch representing a rotating doughnut (an blue arrow gives information about the motion -right hand rule-, axis of rotation and direction)</t>
+    <t>a 3D sketch representing a rotating doughnut (a blue arrow gives information about the motion -right hand rule-, axis of rotation and direction)</t>
+  </si>
+  <si>
+    <t>2. System of reference</t>
+  </si>
+  <si>
+    <t>A video mentioned in the sources illustrates the notion of variation of angular momentum. This variation can be in magnitude or in direction or both. For a given body, the variation in angular momentum is due to the variation in angular velocity. The notion of impulse is also useful and lies behind what it is seen in the video (in which an operator applies a torque to a wheel to give -or impulse- a rotating motion). At the end of the impulse step, the wheel achieves a state of constant angular velocity (in direction and norm) applied to the system consisting of a rotating wheel.</t>
+  </si>
+  <si>
+    <t>3. 3D representation of the rotating system</t>
+  </si>
+  <si>
+    <t>In bullet 1., even if a rotating object can be described simply algebraically, it is 3D in reality. Consequently, it is also convenient to use a space frame of representation and related 3D coordinates (for example, X, Y, Z). Meaning that the rotation attributes are also 3D (for instance, Tx, Ty, Tz, or Om_x, Om_y, Om_z for a torque, and an angular velocity).</t>
+  </si>
+  <si>
+    <t>cos Om t</t>
+  </si>
+  <si>
+    <t>sin Om t</t>
+  </si>
+  <si>
+    <t>-sin Om t</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R x cos Om t</t>
+  </si>
+  <si>
+    <t>-R x sin Om t</t>
+  </si>
+  <si>
+    <t>Rewriting the simple basic rotation of a wheel , or say, any point of the wheel M(R,0,0), in the 3D reference frame  for an observer located at the center of rotation (0,0,0), rotating at a constant angular velocity Om</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
 </sst>
 </file>
@@ -251,10 +293,30 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -264,19 +326,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -417,8 +500,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>1847850</xdr:rowOff>
     </xdr:to>
@@ -468,7 +551,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -823,15 +906,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P80" sqref="P80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,16 +1013,16 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1074,13 +1159,13 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
       <c r="J34" t="s">
         <v>36</v>
       </c>
@@ -1096,26 +1181,26 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="N37" s="4" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="N37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O37" s="4"/>
+      <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1123,84 +1208,260 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="C76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13">
+        <v>1</v>
+      </c>
+      <c r="J76" s="10"/>
+      <c r="K76" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="11">
+        <v>0</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J77" s="10"/>
+      <c r="K77" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="C78" s="7">
+        <v>0</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <v>1</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13">
+        <v>0</v>
+      </c>
+      <c r="J78" s="10"/>
+      <c r="K78" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="10"/>
+      <c r="C80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="11">
+        <v>0</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80" s="10"/>
+      <c r="K80" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N80" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="11">
+        <v>0</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J81" s="10"/>
+      <c r="K81" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N81" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" s="15"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="10"/>
+      <c r="C82" s="7">
+        <v>0</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <v>1</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13">
+        <v>0</v>
+      </c>
+      <c r="J82" s="10"/>
+      <c r="K82" s="13">
+        <v>0</v>
+      </c>
+      <c r="N82" s="13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A72:E72"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A37:E37"/>
@@ -1213,9 +1474,10 @@
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" location=":~:text=than%20this%2C%20however.-,Relativistic%20(Einsteinian),near%20a%20large%20rotating%20mass." xr:uid="{B61D22E3-250D-44EE-B96D-97502284921D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>